--- a/V1.1/GERBERS-ASSY FILES/BOM/Bill of Materials-WATERALARM_V1.1(Basic).xlsx
+++ b/V1.1/GERBERS-ASSY FILES/BOM/Bill of Materials-WATERALARM_V1.1(Basic).xlsx
@@ -5,10 +5,10 @@
   <workbookPr codeName="DieseArbeitsmappe" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\byali\Downloads\1_Water_Leak_Detector\1_Water_Leak_Detector\V1.1\GERBERS-ASSY FILES\BOM\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/a5eefad33a2466c6/Desktop/1.Hardware/1.ProjectsHW/2.WaterAlarm/WaterAlarm-hardware/V1.1/GERBERS-ASSY FILES/BOM/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FE06770F-BC44-4607-9AB3-CAD595D9BB33}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="8" documentId="8_{615D454C-1578-49AE-9977-513FFB0EEAFF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{1B90BEC2-B13F-4A56-A45B-47C6B6C9417B}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="255" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -63,6 +63,21 @@
     <t>Designator</t>
   </si>
   <si>
+    <t>D4</t>
+  </si>
+  <si>
+    <t>VAR1</t>
+  </si>
+  <si>
+    <t>LED1, LED2, LED3</t>
+  </si>
+  <si>
+    <t>U1</t>
+  </si>
+  <si>
+    <t>U2</t>
+  </si>
+  <si>
     <t>BZ1</t>
   </si>
   <si>
@@ -72,141 +87,141 @@
     <t>C2, C4, C6</t>
   </si>
   <si>
+    <t>R1, R2</t>
+  </si>
+  <si>
+    <t>RLY1</t>
+  </si>
+  <si>
     <t>D1, D2, D3</t>
   </si>
   <si>
-    <t>D4</t>
+    <t>Q1, Q2</t>
   </si>
   <si>
     <t>DM1, DM2, DM3</t>
   </si>
   <si>
+    <t>SW1</t>
+  </si>
+  <si>
+    <t>VR1</t>
+  </si>
+  <si>
+    <t>R3</t>
+  </si>
+  <si>
     <t>J1</t>
   </si>
   <si>
-    <t>LED1, LED2, LED3</t>
-  </si>
-  <si>
-    <t>Q1, Q2</t>
-  </si>
-  <si>
-    <t>R1, R2</t>
-  </si>
-  <si>
-    <t>R3</t>
-  </si>
-  <si>
-    <t>RLY1</t>
-  </si>
-  <si>
-    <t>SW1</t>
-  </si>
-  <si>
-    <t>U1</t>
-  </si>
-  <si>
-    <t>U2</t>
-  </si>
-  <si>
-    <t>VAR1</t>
-  </si>
-  <si>
-    <t>VR1</t>
-  </si>
-  <si>
     <t>Footprint</t>
   </si>
   <si>
+    <t>DIONM5127X250N</t>
+  </si>
+  <si>
+    <t>ERZV05D180</t>
+  </si>
+  <si>
+    <t>led 3mm</t>
+  </si>
+  <si>
+    <t>SOP65P640X120-20N</t>
+  </si>
+  <si>
+    <t>SOT89M</t>
+  </si>
+  <si>
     <t>piezo buzzer</t>
   </si>
   <si>
     <t>C0805-N</t>
   </si>
   <si>
+    <t>JW2SNDC5V</t>
+  </si>
+  <si>
     <t>SMA</t>
   </si>
   <si>
-    <t>DIONM5127X250N</t>
+    <t>SOT-23</t>
+  </si>
+  <si>
+    <t>Slide Switch</t>
+  </si>
+  <si>
+    <t>Potentiometer</t>
+  </si>
+  <si>
+    <t>C1210</t>
   </si>
   <si>
     <t>11 pin Terminal sping loaded</t>
   </si>
   <si>
-    <t>led 3mm</t>
-  </si>
-  <si>
-    <t>SOT-23</t>
-  </si>
-  <si>
-    <t>C1210</t>
-  </si>
-  <si>
-    <t>JW2SNDC5V</t>
-  </si>
-  <si>
-    <t>Slide Switch</t>
-  </si>
-  <si>
-    <t>SOP65P640X120-20N</t>
-  </si>
-  <si>
-    <t>SOT89M</t>
-  </si>
-  <si>
-    <t>ERZV05D180</t>
-  </si>
-  <si>
-    <t>Potentiometer</t>
-  </si>
-  <si>
     <t>Manufacturer</t>
   </si>
   <si>
+    <t>YAGEO / MDD(Microdiode Semiconductor)</t>
+  </si>
+  <si>
+    <t>THINKING</t>
+  </si>
+  <si>
+    <t>STRONG BASE</t>
+  </si>
+  <si>
+    <t>STMicroelectronics</t>
+  </si>
+  <si>
+    <t>STM</t>
+  </si>
+  <si>
     <t>SANCO / YXDZ</t>
   </si>
   <si>
     <t>SAMSUNG</t>
   </si>
   <si>
-    <t>ON Semiconductor</t>
-  </si>
-  <si>
-    <t>YAGEO</t>
+    <t>ROYALOHM</t>
+  </si>
+  <si>
+    <t>Panasonic</t>
+  </si>
+  <si>
+    <t>ON Semiconductor /  MDD(Microdiode Semiconductor)</t>
+  </si>
+  <si>
+    <t>NXP</t>
   </si>
   <si>
     <t>KLS ELECTRONIC</t>
   </si>
   <si>
+    <t>HOTTECH</t>
+  </si>
+  <si>
     <t>DEGSON/GAOSONG</t>
   </si>
   <si>
-    <t>STRONG BASE</t>
-  </si>
-  <si>
-    <t>NXP</t>
-  </si>
-  <si>
-    <t>ROYALOHM</t>
-  </si>
-  <si>
-    <t>HOTTECH</t>
-  </si>
-  <si>
-    <t>Panasonic</t>
-  </si>
-  <si>
-    <t>STMicroelectronics</t>
-  </si>
-  <si>
-    <t>STM</t>
-  </si>
-  <si>
-    <t>THINKING</t>
-  </si>
-  <si>
     <t>Manufacturer Part Number</t>
   </si>
   <si>
+    <t>SMAJ36CA/TR7 / SMAJ36CA-UMW</t>
+  </si>
+  <si>
+    <t>TVR07470KSY</t>
+  </si>
+  <si>
+    <t>3R4HD-7-TB</t>
+  </si>
+  <si>
+    <t>STM8L051F3P6TR</t>
+  </si>
+  <si>
+    <t>L78L33ACUTR</t>
+  </si>
+  <si>
     <t>EPT-14A4009P050D / YX-WY1470A</t>
   </si>
   <si>
@@ -216,51 +231,51 @@
     <t>CL21A475KBQNNNE</t>
   </si>
   <si>
-    <t>US1D_R1_00001</t>
-  </si>
-  <si>
-    <t>SMAJ36CA/TR7</t>
+    <t>0805S8F2211T5E/0805S8J0222T5E</t>
+  </si>
+  <si>
+    <t>JW2SN-DC5V</t>
+  </si>
+  <si>
+    <t>US1D_R1_00001 / US1D-SMA-MDD</t>
+  </si>
+  <si>
+    <t>BC817-40,215</t>
   </si>
   <si>
     <t>L-KLS8-0108-LED-12</t>
   </si>
   <si>
+    <t>L-KLS7-SS-12F20A-G5</t>
+  </si>
+  <si>
+    <t>L-KLS4-WH06-2A-103</t>
+  </si>
+  <si>
+    <t>RI1210L122JT</t>
+  </si>
+  <si>
     <t>DG250-3.5-11P</t>
   </si>
   <si>
-    <t>3R4HD-7-TB</t>
-  </si>
-  <si>
-    <t>BC817-40,215</t>
-  </si>
-  <si>
-    <t>0805S8F2211T5E/0805S8J0222T5E</t>
-  </si>
-  <si>
-    <t>RI1210L122JT</t>
-  </si>
-  <si>
-    <t>JW2SN-DC5V</t>
-  </si>
-  <si>
-    <t>L-KLS7-SS-12F20A-G5</t>
-  </si>
-  <si>
-    <t>STM8L051F3P6TR</t>
-  </si>
-  <si>
-    <t>L78L33ACUTR</t>
-  </si>
-  <si>
-    <t>TVR07470KSY</t>
-  </si>
-  <si>
-    <t>L-KLS4-WH06-2A-103</t>
-  </si>
-  <si>
     <t>Description</t>
   </si>
   <si>
+    <t>58.1V Clamp 6.9A Ipp Tvs Diode Surface Mount DO-214AC (SMA)</t>
+  </si>
+  <si>
+    <t>VARISTOR DISC 7MM 47V 250A 30VAC 38VDC THT</t>
+  </si>
+  <si>
+    <t>LED 3MM RED 30mcd 35° RED/DIFFUSED</t>
+  </si>
+  <si>
+    <t>IC-8L051 MCU 8BIT 8K FLASH TSSOP20</t>
+  </si>
+  <si>
+    <t>IC-78L33 VOLTAGE REGULATOR 3.3V 100mA SOT89 ST</t>
+  </si>
+  <si>
     <t>BUZZER PIEZO W/O CIRCUIT 9V 4-KHZ THT</t>
   </si>
   <si>
@@ -270,73 +285,58 @@
     <t>MLCC (2012) 0805 4.7uF 50VDC ±10% X5R</t>
   </si>
   <si>
+    <t>RES.(2012) 0805 2.21K/2.2K Ohms 1%/5% 1/8W-S 100PPM</t>
+  </si>
+  <si>
+    <t>General Purpose Relay DPDT (2 Form C) 5VDC Coil Through Hole</t>
+  </si>
+  <si>
     <t>DIODE U.FAST SINGLE 1A 200V DO214AC (SMA) SMT</t>
   </si>
   <si>
-    <t>58.1V Clamp 6.9A Ipp Tvs Diode Surface Mount DO-214AC (SMA)</t>
+    <t>TRANSISTOR DIS.500mA 45V NPN SOT23 GEN. SMT</t>
   </si>
   <si>
     <t>LED DISTANCE SPACER 12.00mm NONE Ø5.00mm</t>
   </si>
   <si>
+    <t>SWITCH SLIDE 1P2T 500mA 50V On-On THT V/T</t>
+  </si>
+  <si>
+    <t>TRIMPOT CARBON V 6MM 10K</t>
+  </si>
+  <si>
+    <t>RES.(3225) 1210 1.2K Ohms 5% 1/2W 200PPM</t>
+  </si>
+  <si>
     <t>TERM.BLK.3.50MM 11P PCB TYPE GRAY GAOSONG</t>
   </si>
   <si>
-    <t>LED 3MM RED 30mcd 35° RED/DIFFUSED</t>
-  </si>
-  <si>
-    <t>TRANSISTOR DIS.500mA 45V NPN SOT23 GEN. SMT</t>
-  </si>
-  <si>
-    <t>RES.(2012) 0805 2.21K/2.2K Ohms 1%/5% 1/8W-S 100PPM</t>
-  </si>
-  <si>
-    <t>RES.(3225) 1210 1.2K Ohms 5% 1/2W 200PPM</t>
-  </si>
-  <si>
-    <t>General Purpose Relay DPDT (2 Form C) 5VDC Coil Through Hole</t>
-  </si>
-  <si>
-    <t>SWITCH SLIDE 1P2T 500mA 50V On-On THT V/T</t>
-  </si>
-  <si>
-    <t>IC-8L051 MCU 8BIT 8K FLASH TSSOP20</t>
-  </si>
-  <si>
-    <t>IC-78L33 VOLTAGE REGULATOR 3.3V 100mA SOT89 ST</t>
-  </si>
-  <si>
-    <t>VARISTOR DISC 7MM 47V 250A 30VAC 38VDC THT</t>
-  </si>
-  <si>
-    <t>TRIMPOT CARBON V 6MM 10K</t>
-  </si>
-  <si>
     <t>Value</t>
   </si>
   <si>
+    <t>58.1V</t>
+  </si>
+  <si>
     <t>100nF</t>
   </si>
   <si>
     <t>4.7uF</t>
   </si>
   <si>
+    <t>2.21K/2.2K</t>
+  </si>
+  <si>
     <t>200V 1A</t>
   </si>
   <si>
-    <t>58.1V</t>
-  </si>
-  <si>
     <t>LED DISTANCE SPACER 12.00mm Ø5.00mm</t>
   </si>
   <si>
-    <t>2.21K/2.2K</t>
+    <t>10K</t>
   </si>
   <si>
     <t>1.2K</t>
-  </si>
-  <si>
-    <t>10K</t>
   </si>
   <si>
     <t>Quantity</t>
@@ -1436,7 +1436,7 @@
   <dimension ref="A1:H24"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B25" sqref="B25"/>
+      <selection activeCell="D27" sqref="D27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1444,8 +1444,8 @@
     <col min="1" max="1" width="3.140625" customWidth="1"/>
     <col min="2" max="2" width="17.28515625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="25" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="19.42578125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="31.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="47.5703125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="31.85546875" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="57.140625" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="40.5703125" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="10.7109375" bestFit="1" customWidth="1"/>
@@ -1484,7 +1484,7 @@
       <c r="D3" s="25"/>
       <c r="E3" s="1">
         <f ca="1">TODAY()</f>
-        <v>46078</v>
+        <v>46080</v>
       </c>
       <c r="F3" s="27" t="s">
         <v>6</v>
@@ -1550,7 +1550,9 @@
       <c r="F6" s="7" t="s">
         <v>76</v>
       </c>
-      <c r="G6" s="7"/>
+      <c r="G6" s="7" t="s">
+        <v>94</v>
+      </c>
       <c r="H6" s="14">
         <v>1</v>
       </c>
@@ -1576,10 +1578,10 @@
         <v>77</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>94</v>
+        <v>59</v>
       </c>
       <c r="H7" s="15">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.2">
@@ -1591,10 +1593,10 @@
         <v>12</v>
       </c>
       <c r="C8" s="6" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D8" s="8" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="E8" s="7" t="s">
         <v>60</v>
@@ -1602,9 +1604,7 @@
       <c r="F8" s="7" t="s">
         <v>78</v>
       </c>
-      <c r="G8" s="7" t="s">
-        <v>95</v>
-      </c>
+      <c r="G8" s="7"/>
       <c r="H8" s="14">
         <v>3</v>
       </c>
@@ -1618,10 +1618,10 @@
         <v>13</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="E9" s="2" t="s">
         <v>61</v>
@@ -1629,11 +1629,9 @@
       <c r="F9" s="2" t="s">
         <v>79</v>
       </c>
-      <c r="G9" s="2" t="s">
-        <v>96</v>
-      </c>
+      <c r="G9" s="2"/>
       <c r="H9" s="15">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.2">
@@ -1645,10 +1643,10 @@
         <v>14</v>
       </c>
       <c r="C10" s="6" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D10" s="8" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="E10" s="7" t="s">
         <v>62</v>
@@ -1657,7 +1655,7 @@
         <v>80</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>97</v>
+        <v>62</v>
       </c>
       <c r="H10" s="14">
         <v>1</v>
@@ -1671,9 +1669,11 @@
       <c r="B11" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="C11" s="3"/>
+      <c r="C11" s="3" t="s">
+        <v>33</v>
+      </c>
       <c r="D11" s="3" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="E11" s="2" t="s">
         <v>63</v>
@@ -1681,11 +1681,9 @@
       <c r="F11" s="2" t="s">
         <v>81</v>
       </c>
-      <c r="G11" s="2" t="s">
-        <v>98</v>
-      </c>
+      <c r="G11" s="2"/>
       <c r="H11" s="15">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.2">
@@ -1697,10 +1695,10 @@
         <v>16</v>
       </c>
       <c r="C12" s="6" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="D12" s="8" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="E12" s="7" t="s">
         <v>64</v>
@@ -1709,10 +1707,10 @@
         <v>82</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>64</v>
+        <v>95</v>
       </c>
       <c r="H12" s="14">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.2">
@@ -1724,7 +1722,7 @@
         <v>17</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D13" s="3" t="s">
         <v>49</v>
@@ -1735,7 +1733,9 @@
       <c r="F13" s="2" t="s">
         <v>83</v>
       </c>
-      <c r="G13" s="2"/>
+      <c r="G13" s="2" t="s">
+        <v>96</v>
+      </c>
       <c r="H13" s="15">
         <v>3</v>
       </c>
@@ -1760,7 +1760,9 @@
       <c r="F14" s="7" t="s">
         <v>84</v>
       </c>
-      <c r="G14" s="7"/>
+      <c r="G14" s="7" t="s">
+        <v>97</v>
+      </c>
       <c r="H14" s="14">
         <v>2</v>
       </c>
@@ -1774,7 +1776,7 @@
         <v>19</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="D15" s="3" t="s">
         <v>51</v>
@@ -1785,11 +1787,9 @@
       <c r="F15" s="2" t="s">
         <v>85</v>
       </c>
-      <c r="G15" s="2" t="s">
-        <v>99</v>
-      </c>
+      <c r="G15" s="2"/>
       <c r="H15" s="15">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.2">
@@ -1801,7 +1801,7 @@
         <v>20</v>
       </c>
       <c r="C16" s="6" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D16" s="8" t="s">
         <v>52</v>
@@ -1813,10 +1813,10 @@
         <v>86</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="H16" s="14">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.2">
@@ -1828,7 +1828,7 @@
         <v>21</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D17" s="3" t="s">
         <v>53</v>
@@ -1841,7 +1841,7 @@
       </c>
       <c r="G17" s="2"/>
       <c r="H17" s="15">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.2">
@@ -1852,11 +1852,9 @@
       <c r="B18" s="10" t="s">
         <v>22</v>
       </c>
-      <c r="C18" s="6" t="s">
-        <v>37</v>
-      </c>
+      <c r="C18" s="6"/>
       <c r="D18" s="8" t="s">
-        <v>47</v>
+        <v>54</v>
       </c>
       <c r="E18" s="7" t="s">
         <v>70</v>
@@ -1864,9 +1862,11 @@
       <c r="F18" s="7" t="s">
         <v>88</v>
       </c>
-      <c r="G18" s="7"/>
+      <c r="G18" s="7" t="s">
+        <v>99</v>
+      </c>
       <c r="H18" s="14">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.2">
@@ -1906,7 +1906,7 @@
         <v>39</v>
       </c>
       <c r="D20" s="8" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E20" s="7" t="s">
         <v>72</v>
@@ -1915,7 +1915,7 @@
         <v>90</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>72</v>
+        <v>100</v>
       </c>
       <c r="H20" s="14">
         <v>1</v>
@@ -1933,7 +1933,7 @@
         <v>40</v>
       </c>
       <c r="D21" s="3" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="E21" s="2" t="s">
         <v>73</v>
@@ -1942,7 +1942,7 @@
         <v>91</v>
       </c>
       <c r="G21" s="2" t="s">
-        <v>73</v>
+        <v>101</v>
       </c>
       <c r="H21" s="15">
         <v>1</v>
@@ -1960,7 +1960,7 @@
         <v>41</v>
       </c>
       <c r="D22" s="8" t="s">
-        <v>47</v>
+        <v>56</v>
       </c>
       <c r="E22" s="7" t="s">
         <v>74</v>
@@ -1969,7 +1969,7 @@
         <v>92</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>101</v>
+        <v>74</v>
       </c>
       <c r="H22" s="14">
         <v>1</v>
